--- a/hasil/2023_01_lipa_6.xlsx
+++ b/hasil/2023_01_lipa_6.xlsx
@@ -89,7 +89,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 15 Maret 2023</t>
+    <t>Ternate , 25 Mei 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
@@ -1127,22 +1127,22 @@
         <v>15</v>
       </c>
       <c r="C9" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="15">
         <v>0</v>
       </c>
       <c r="E9" s="15">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F9" s="15">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G9" s="15">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H9" s="15">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I9" s="15">
         <v>14</v>
@@ -1151,10 +1151,10 @@
         <v>2</v>
       </c>
       <c r="K9" s="15">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L9" s="15">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M9" s="15">
         <v>14</v>
@@ -1178,22 +1178,22 @@
         <v>16</v>
       </c>
       <c r="C10" s="15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="15">
         <v>0</v>
       </c>
       <c r="E10" s="15">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F10" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="15">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H10" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="15">
         <v>12</v>
@@ -1202,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="15">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L10" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" s="15">
         <v>12</v>
@@ -1238,13 +1238,13 @@
         <v>7</v>
       </c>
       <c r="F11" s="15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G11" s="15">
         <v>7</v>
       </c>
       <c r="H11" s="15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I11" s="15">
         <v>5</v>
@@ -1256,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M11" s="15">
         <v>5</v>
@@ -1285,16 +1285,16 @@
         <v>0</v>
       </c>
       <c r="E12" s="15">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F12" s="15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G12" s="15">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H12" s="15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I12" s="15">
         <v>12</v>
@@ -1303,10 +1303,10 @@
         <v>3</v>
       </c>
       <c r="K12" s="15">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L12" s="15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M12" s="15">
         <v>12</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="E13" s="15">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F13" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G13" s="15">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H13" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I13" s="15">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="15">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L13" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
@@ -1379,19 +1379,19 @@
         <v>20</v>
       </c>
       <c r="C14" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="15">
         <v>0</v>
       </c>
       <c r="E14" s="15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
       </c>
       <c r="G14" s="15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H14" s="15">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L14" s="15">
         <v>1</v>

--- a/hasil/2023_01_lipa_6.xlsx
+++ b/hasil/2023_01_lipa_6.xlsx
@@ -89,13 +89,13 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 25 Mei 2023</t>
+    <t>Ternate , 17 Juli 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
   </si>
   <si>
-    <t>Panitera,</t>
+    <t xml:space="preserve">Panitera, </t>
   </si>
   <si>
     <t>Drs. Djabir Sasole, M.H</t>
@@ -245,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -306,16 +306,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -623,263 +615,263 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="13.2" defaultColWidth="6.109375" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="12.75" defaultColWidth="6.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="2"/>
-    <col min="2" max="2" width="34.109375" customWidth="true" style="2"/>
-    <col min="3" max="3" width="8.5546875" customWidth="true" style="2"/>
-    <col min="4" max="4" width="8.5546875" customWidth="true" style="2"/>
-    <col min="5" max="5" width="8.5546875" customWidth="true" style="2"/>
-    <col min="6" max="6" width="8.5546875" customWidth="true" style="2"/>
-    <col min="7" max="7" width="8.33203125" customWidth="true" style="2"/>
-    <col min="8" max="8" width="7.6640625" customWidth="true" style="2"/>
-    <col min="9" max="9" width="7.88671875" customWidth="true" style="2"/>
-    <col min="10" max="10" width="7.6640625" customWidth="true" style="2"/>
-    <col min="11" max="11" width="7.44140625" customWidth="true" style="2"/>
-    <col min="12" max="12" width="7.6640625" customWidth="true" style="2"/>
-    <col min="13" max="13" width="10.6640625" customWidth="true" style="2"/>
-    <col min="14" max="14" width="10.6640625" customWidth="true" style="2"/>
-    <col min="15" max="15" width="12.6640625" customWidth="true" style="2"/>
-    <col min="16" max="16" width="12.6640625" customWidth="true" style="2"/>
-    <col min="17" max="17" width="9.109375" customWidth="true" style="2"/>
-    <col min="18" max="18" width="9.109375" customWidth="true" style="2"/>
-    <col min="19" max="19" width="9.109375" customWidth="true" style="2"/>
-    <col min="20" max="20" width="9.109375" customWidth="true" style="2"/>
-    <col min="21" max="21" width="9.109375" customWidth="true" style="2"/>
-    <col min="22" max="22" width="9.109375" customWidth="true" style="2"/>
-    <col min="23" max="23" width="9.109375" customWidth="true" style="2"/>
-    <col min="24" max="24" width="9.109375" customWidth="true" style="2"/>
-    <col min="25" max="25" width="9.109375" customWidth="true" style="2"/>
-    <col min="26" max="26" width="9.109375" customWidth="true" style="2"/>
-    <col min="27" max="27" width="9.109375" customWidth="true" style="2"/>
-    <col min="28" max="28" width="9.109375" customWidth="true" style="2"/>
-    <col min="29" max="29" width="9.109375" customWidth="true" style="2"/>
-    <col min="30" max="30" width="9.109375" customWidth="true" style="2"/>
-    <col min="31" max="31" width="9.109375" customWidth="true" style="2"/>
-    <col min="32" max="32" width="9.109375" customWidth="true" style="2"/>
-    <col min="33" max="33" width="9.109375" customWidth="true" style="2"/>
-    <col min="34" max="34" width="9.109375" customWidth="true" style="2"/>
-    <col min="35" max="35" width="9.109375" customWidth="true" style="2"/>
-    <col min="36" max="36" width="9.109375" customWidth="true" style="2"/>
-    <col min="37" max="37" width="9.109375" customWidth="true" style="2"/>
-    <col min="38" max="38" width="9.109375" customWidth="true" style="2"/>
-    <col min="39" max="39" width="9.109375" customWidth="true" style="2"/>
-    <col min="40" max="40" width="9.109375" customWidth="true" style="2"/>
-    <col min="41" max="41" width="9.109375" customWidth="true" style="2"/>
-    <col min="42" max="42" width="9.109375" customWidth="true" style="2"/>
-    <col min="43" max="43" width="9.109375" customWidth="true" style="2"/>
-    <col min="44" max="44" width="9.109375" customWidth="true" style="2"/>
-    <col min="45" max="45" width="9.109375" customWidth="true" style="2"/>
-    <col min="46" max="46" width="9.109375" customWidth="true" style="2"/>
-    <col min="47" max="47" width="9.109375" customWidth="true" style="2"/>
-    <col min="48" max="48" width="9.109375" customWidth="true" style="2"/>
-    <col min="49" max="49" width="9.109375" customWidth="true" style="2"/>
-    <col min="50" max="50" width="9.109375" customWidth="true" style="2"/>
-    <col min="51" max="51" width="9.109375" customWidth="true" style="2"/>
-    <col min="52" max="52" width="9.109375" customWidth="true" style="2"/>
-    <col min="53" max="53" width="9.109375" customWidth="true" style="2"/>
-    <col min="54" max="54" width="9.109375" customWidth="true" style="2"/>
-    <col min="55" max="55" width="9.109375" customWidth="true" style="2"/>
-    <col min="56" max="56" width="9.109375" customWidth="true" style="2"/>
-    <col min="57" max="57" width="9.109375" customWidth="true" style="2"/>
-    <col min="58" max="58" width="9.109375" customWidth="true" style="2"/>
-    <col min="59" max="59" width="9.109375" customWidth="true" style="2"/>
-    <col min="60" max="60" width="9.109375" customWidth="true" style="2"/>
-    <col min="61" max="61" width="9.109375" customWidth="true" style="2"/>
-    <col min="62" max="62" width="9.109375" customWidth="true" style="2"/>
-    <col min="63" max="63" width="9.109375" customWidth="true" style="2"/>
-    <col min="64" max="64" width="9.109375" customWidth="true" style="2"/>
-    <col min="65" max="65" width="9.109375" customWidth="true" style="2"/>
-    <col min="66" max="66" width="9.109375" customWidth="true" style="2"/>
-    <col min="67" max="67" width="9.109375" customWidth="true" style="2"/>
-    <col min="68" max="68" width="9.109375" customWidth="true" style="2"/>
-    <col min="69" max="69" width="9.109375" customWidth="true" style="2"/>
-    <col min="70" max="70" width="9.109375" customWidth="true" style="2"/>
-    <col min="71" max="71" width="9.109375" customWidth="true" style="2"/>
-    <col min="72" max="72" width="9.109375" customWidth="true" style="2"/>
-    <col min="73" max="73" width="9.109375" customWidth="true" style="2"/>
-    <col min="74" max="74" width="9.109375" customWidth="true" style="2"/>
-    <col min="75" max="75" width="9.109375" customWidth="true" style="2"/>
-    <col min="76" max="76" width="9.109375" customWidth="true" style="2"/>
-    <col min="77" max="77" width="9.109375" customWidth="true" style="2"/>
-    <col min="78" max="78" width="9.109375" customWidth="true" style="2"/>
-    <col min="79" max="79" width="9.109375" customWidth="true" style="2"/>
-    <col min="80" max="80" width="9.109375" customWidth="true" style="2"/>
-    <col min="81" max="81" width="9.109375" customWidth="true" style="2"/>
-    <col min="82" max="82" width="9.109375" customWidth="true" style="2"/>
-    <col min="83" max="83" width="9.109375" customWidth="true" style="2"/>
-    <col min="84" max="84" width="9.109375" customWidth="true" style="2"/>
-    <col min="85" max="85" width="9.109375" customWidth="true" style="2"/>
-    <col min="86" max="86" width="9.109375" customWidth="true" style="2"/>
-    <col min="87" max="87" width="9.109375" customWidth="true" style="2"/>
-    <col min="88" max="88" width="9.109375" customWidth="true" style="2"/>
-    <col min="89" max="89" width="9.109375" customWidth="true" style="2"/>
-    <col min="90" max="90" width="9.109375" customWidth="true" style="2"/>
-    <col min="91" max="91" width="9.109375" customWidth="true" style="2"/>
-    <col min="92" max="92" width="9.109375" customWidth="true" style="2"/>
-    <col min="93" max="93" width="9.109375" customWidth="true" style="2"/>
-    <col min="94" max="94" width="9.109375" customWidth="true" style="2"/>
-    <col min="95" max="95" width="9.109375" customWidth="true" style="2"/>
-    <col min="96" max="96" width="9.109375" customWidth="true" style="2"/>
-    <col min="97" max="97" width="9.109375" customWidth="true" style="2"/>
-    <col min="98" max="98" width="9.109375" customWidth="true" style="2"/>
-    <col min="99" max="99" width="9.109375" customWidth="true" style="2"/>
-    <col min="100" max="100" width="9.109375" customWidth="true" style="2"/>
-    <col min="101" max="101" width="9.109375" customWidth="true" style="2"/>
-    <col min="102" max="102" width="9.109375" customWidth="true" style="2"/>
-    <col min="103" max="103" width="9.109375" customWidth="true" style="2"/>
-    <col min="104" max="104" width="9.109375" customWidth="true" style="2"/>
-    <col min="105" max="105" width="9.109375" customWidth="true" style="2"/>
-    <col min="106" max="106" width="9.109375" customWidth="true" style="2"/>
-    <col min="107" max="107" width="9.109375" customWidth="true" style="2"/>
-    <col min="108" max="108" width="9.109375" customWidth="true" style="2"/>
-    <col min="109" max="109" width="9.109375" customWidth="true" style="2"/>
-    <col min="110" max="110" width="9.109375" customWidth="true" style="2"/>
-    <col min="111" max="111" width="9.109375" customWidth="true" style="2"/>
-    <col min="112" max="112" width="9.109375" customWidth="true" style="2"/>
-    <col min="113" max="113" width="9.109375" customWidth="true" style="2"/>
-    <col min="114" max="114" width="9.109375" customWidth="true" style="2"/>
-    <col min="115" max="115" width="9.109375" customWidth="true" style="2"/>
-    <col min="116" max="116" width="9.109375" customWidth="true" style="2"/>
-    <col min="117" max="117" width="9.109375" customWidth="true" style="2"/>
-    <col min="118" max="118" width="9.109375" customWidth="true" style="2"/>
-    <col min="119" max="119" width="9.109375" customWidth="true" style="2"/>
-    <col min="120" max="120" width="9.109375" customWidth="true" style="2"/>
-    <col min="121" max="121" width="9.109375" customWidth="true" style="2"/>
-    <col min="122" max="122" width="9.109375" customWidth="true" style="2"/>
-    <col min="123" max="123" width="9.109375" customWidth="true" style="2"/>
-    <col min="124" max="124" width="9.109375" customWidth="true" style="2"/>
-    <col min="125" max="125" width="9.109375" customWidth="true" style="2"/>
-    <col min="126" max="126" width="9.109375" customWidth="true" style="2"/>
-    <col min="127" max="127" width="9.109375" customWidth="true" style="2"/>
-    <col min="128" max="128" width="9.109375" customWidth="true" style="2"/>
-    <col min="129" max="129" width="9.109375" customWidth="true" style="2"/>
-    <col min="130" max="130" width="9.109375" customWidth="true" style="2"/>
-    <col min="131" max="131" width="9.109375" customWidth="true" style="2"/>
-    <col min="132" max="132" width="9.109375" customWidth="true" style="2"/>
-    <col min="133" max="133" width="9.109375" customWidth="true" style="2"/>
-    <col min="134" max="134" width="9.109375" customWidth="true" style="2"/>
-    <col min="135" max="135" width="9.109375" customWidth="true" style="2"/>
-    <col min="136" max="136" width="9.109375" customWidth="true" style="2"/>
-    <col min="137" max="137" width="9.109375" customWidth="true" style="2"/>
-    <col min="138" max="138" width="9.109375" customWidth="true" style="2"/>
-    <col min="139" max="139" width="9.109375" customWidth="true" style="2"/>
-    <col min="140" max="140" width="9.109375" customWidth="true" style="2"/>
-    <col min="141" max="141" width="9.109375" customWidth="true" style="2"/>
-    <col min="142" max="142" width="9.109375" customWidth="true" style="2"/>
-    <col min="143" max="143" width="9.109375" customWidth="true" style="2"/>
-    <col min="144" max="144" width="9.109375" customWidth="true" style="2"/>
-    <col min="145" max="145" width="9.109375" customWidth="true" style="2"/>
-    <col min="146" max="146" width="9.109375" customWidth="true" style="2"/>
-    <col min="147" max="147" width="9.109375" customWidth="true" style="2"/>
-    <col min="148" max="148" width="9.109375" customWidth="true" style="2"/>
-    <col min="149" max="149" width="9.109375" customWidth="true" style="2"/>
-    <col min="150" max="150" width="9.109375" customWidth="true" style="2"/>
-    <col min="151" max="151" width="9.109375" customWidth="true" style="2"/>
-    <col min="152" max="152" width="9.109375" customWidth="true" style="2"/>
-    <col min="153" max="153" width="9.109375" customWidth="true" style="2"/>
-    <col min="154" max="154" width="9.109375" customWidth="true" style="2"/>
-    <col min="155" max="155" width="9.109375" customWidth="true" style="2"/>
-    <col min="156" max="156" width="9.109375" customWidth="true" style="2"/>
-    <col min="157" max="157" width="9.109375" customWidth="true" style="2"/>
-    <col min="158" max="158" width="9.109375" customWidth="true" style="2"/>
-    <col min="159" max="159" width="9.109375" customWidth="true" style="2"/>
-    <col min="160" max="160" width="9.109375" customWidth="true" style="2"/>
-    <col min="161" max="161" width="9.109375" customWidth="true" style="2"/>
-    <col min="162" max="162" width="9.109375" customWidth="true" style="2"/>
-    <col min="163" max="163" width="9.109375" customWidth="true" style="2"/>
-    <col min="164" max="164" width="9.109375" customWidth="true" style="2"/>
-    <col min="165" max="165" width="9.109375" customWidth="true" style="2"/>
-    <col min="166" max="166" width="9.109375" customWidth="true" style="2"/>
-    <col min="167" max="167" width="9.109375" customWidth="true" style="2"/>
-    <col min="168" max="168" width="9.109375" customWidth="true" style="2"/>
-    <col min="169" max="169" width="9.109375" customWidth="true" style="2"/>
-    <col min="170" max="170" width="9.109375" customWidth="true" style="2"/>
-    <col min="171" max="171" width="9.109375" customWidth="true" style="2"/>
-    <col min="172" max="172" width="9.109375" customWidth="true" style="2"/>
-    <col min="173" max="173" width="9.109375" customWidth="true" style="2"/>
-    <col min="174" max="174" width="9.109375" customWidth="true" style="2"/>
-    <col min="175" max="175" width="9.109375" customWidth="true" style="2"/>
-    <col min="176" max="176" width="9.109375" customWidth="true" style="2"/>
-    <col min="177" max="177" width="9.109375" customWidth="true" style="2"/>
-    <col min="178" max="178" width="9.109375" customWidth="true" style="2"/>
-    <col min="179" max="179" width="9.109375" customWidth="true" style="2"/>
-    <col min="180" max="180" width="9.109375" customWidth="true" style="2"/>
-    <col min="181" max="181" width="9.109375" customWidth="true" style="2"/>
-    <col min="182" max="182" width="9.109375" customWidth="true" style="2"/>
-    <col min="183" max="183" width="9.109375" customWidth="true" style="2"/>
-    <col min="184" max="184" width="9.109375" customWidth="true" style="2"/>
-    <col min="185" max="185" width="9.109375" customWidth="true" style="2"/>
-    <col min="186" max="186" width="9.109375" customWidth="true" style="2"/>
-    <col min="187" max="187" width="9.109375" customWidth="true" style="2"/>
-    <col min="188" max="188" width="9.109375" customWidth="true" style="2"/>
-    <col min="189" max="189" width="9.109375" customWidth="true" style="2"/>
-    <col min="190" max="190" width="9.109375" customWidth="true" style="2"/>
-    <col min="191" max="191" width="9.109375" customWidth="true" style="2"/>
-    <col min="192" max="192" width="9.109375" customWidth="true" style="2"/>
-    <col min="193" max="193" width="9.109375" customWidth="true" style="2"/>
-    <col min="194" max="194" width="9.109375" customWidth="true" style="2"/>
-    <col min="195" max="195" width="9.109375" customWidth="true" style="2"/>
-    <col min="196" max="196" width="9.109375" customWidth="true" style="2"/>
-    <col min="197" max="197" width="9.109375" customWidth="true" style="2"/>
-    <col min="198" max="198" width="9.109375" customWidth="true" style="2"/>
-    <col min="199" max="199" width="9.109375" customWidth="true" style="2"/>
-    <col min="200" max="200" width="9.109375" customWidth="true" style="2"/>
-    <col min="201" max="201" width="9.109375" customWidth="true" style="2"/>
-    <col min="202" max="202" width="9.109375" customWidth="true" style="2"/>
-    <col min="203" max="203" width="9.109375" customWidth="true" style="2"/>
-    <col min="204" max="204" width="9.109375" customWidth="true" style="2"/>
-    <col min="205" max="205" width="9.109375" customWidth="true" style="2"/>
-    <col min="206" max="206" width="9.109375" customWidth="true" style="2"/>
-    <col min="207" max="207" width="9.109375" customWidth="true" style="2"/>
-    <col min="208" max="208" width="9.109375" customWidth="true" style="2"/>
-    <col min="209" max="209" width="9.109375" customWidth="true" style="2"/>
-    <col min="210" max="210" width="9.109375" customWidth="true" style="2"/>
-    <col min="211" max="211" width="9.109375" customWidth="true" style="2"/>
-    <col min="212" max="212" width="9.109375" customWidth="true" style="2"/>
-    <col min="213" max="213" width="9.109375" customWidth="true" style="2"/>
-    <col min="214" max="214" width="9.109375" customWidth="true" style="2"/>
-    <col min="215" max="215" width="9.109375" customWidth="true" style="2"/>
-    <col min="216" max="216" width="9.109375" customWidth="true" style="2"/>
-    <col min="217" max="217" width="9.109375" customWidth="true" style="2"/>
-    <col min="218" max="218" width="9.109375" customWidth="true" style="2"/>
-    <col min="219" max="219" width="9.109375" customWidth="true" style="2"/>
-    <col min="220" max="220" width="9.109375" customWidth="true" style="2"/>
-    <col min="221" max="221" width="9.109375" customWidth="true" style="2"/>
-    <col min="222" max="222" width="9.109375" customWidth="true" style="2"/>
-    <col min="223" max="223" width="9.109375" customWidth="true" style="2"/>
-    <col min="224" max="224" width="9.109375" customWidth="true" style="2"/>
-    <col min="225" max="225" width="9.109375" customWidth="true" style="2"/>
-    <col min="226" max="226" width="9.109375" customWidth="true" style="2"/>
-    <col min="227" max="227" width="9.109375" customWidth="true" style="2"/>
-    <col min="228" max="228" width="9.109375" customWidth="true" style="2"/>
-    <col min="229" max="229" width="9.109375" customWidth="true" style="2"/>
-    <col min="230" max="230" width="9.109375" customWidth="true" style="2"/>
-    <col min="231" max="231" width="9.109375" customWidth="true" style="2"/>
-    <col min="232" max="232" width="9.109375" customWidth="true" style="2"/>
-    <col min="233" max="233" width="9.109375" customWidth="true" style="2"/>
-    <col min="234" max="234" width="9.109375" customWidth="true" style="2"/>
-    <col min="235" max="235" width="9.109375" customWidth="true" style="2"/>
-    <col min="236" max="236" width="9.109375" customWidth="true" style="2"/>
-    <col min="237" max="237" width="9.109375" customWidth="true" style="2"/>
-    <col min="238" max="238" width="9.109375" customWidth="true" style="2"/>
-    <col min="239" max="239" width="9.109375" customWidth="true" style="2"/>
-    <col min="240" max="240" width="9.109375" customWidth="true" style="2"/>
-    <col min="241" max="241" width="9.109375" customWidth="true" style="2"/>
-    <col min="242" max="242" width="9.109375" customWidth="true" style="2"/>
-    <col min="243" max="243" width="9.109375" customWidth="true" style="2"/>
-    <col min="244" max="244" width="9.109375" customWidth="true" style="2"/>
-    <col min="245" max="245" width="9.109375" customWidth="true" style="2"/>
-    <col min="246" max="246" width="9.109375" customWidth="true" style="2"/>
-    <col min="247" max="247" width="9.109375" customWidth="true" style="2"/>
-    <col min="248" max="248" width="9.109375" customWidth="true" style="2"/>
-    <col min="249" max="249" width="9.109375" customWidth="true" style="2"/>
-    <col min="250" max="250" width="9.109375" customWidth="true" style="2"/>
-    <col min="251" max="251" width="9.109375" customWidth="true" style="2"/>
-    <col min="252" max="252" width="9.109375" customWidth="true" style="2"/>
-    <col min="253" max="253" width="9.109375" customWidth="true" style="2"/>
-    <col min="254" max="254" width="9.109375" customWidth="true" style="2"/>
-    <col min="255" max="255" width="9.109375" customWidth="true" style="2"/>
+    <col min="1" max="1" width="6.140625" style="2"/>
+    <col min="2" max="2" width="34.140625" customWidth="true" style="2"/>
+    <col min="3" max="3" width="8.5703125" customWidth="true" style="2"/>
+    <col min="4" max="4" width="8.5703125" customWidth="true" style="2"/>
+    <col min="5" max="5" width="8.5703125" customWidth="true" style="2"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true" style="2"/>
+    <col min="7" max="7" width="8.28515625" customWidth="true" style="2"/>
+    <col min="8" max="8" width="7.7109375" customWidth="true" style="2"/>
+    <col min="9" max="9" width="7.85546875" customWidth="true" style="2"/>
+    <col min="10" max="10" width="7.7109375" customWidth="true" style="2"/>
+    <col min="11" max="11" width="7.42578125" customWidth="true" style="2"/>
+    <col min="12" max="12" width="7.7109375" customWidth="true" style="2"/>
+    <col min="13" max="13" width="10.7109375" customWidth="true" style="2"/>
+    <col min="14" max="14" width="10.7109375" customWidth="true" style="2"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true" style="2"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true" style="2"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="2"/>
+    <col min="18" max="18" width="9.140625" customWidth="true" style="2"/>
+    <col min="19" max="19" width="9.140625" customWidth="true" style="2"/>
+    <col min="20" max="20" width="9.140625" customWidth="true" style="2"/>
+    <col min="21" max="21" width="9.140625" customWidth="true" style="2"/>
+    <col min="22" max="22" width="9.140625" customWidth="true" style="2"/>
+    <col min="23" max="23" width="9.140625" customWidth="true" style="2"/>
+    <col min="24" max="24" width="9.140625" customWidth="true" style="2"/>
+    <col min="25" max="25" width="9.140625" customWidth="true" style="2"/>
+    <col min="26" max="26" width="9.140625" customWidth="true" style="2"/>
+    <col min="27" max="27" width="9.140625" customWidth="true" style="2"/>
+    <col min="28" max="28" width="9.140625" customWidth="true" style="2"/>
+    <col min="29" max="29" width="9.140625" customWidth="true" style="2"/>
+    <col min="30" max="30" width="9.140625" customWidth="true" style="2"/>
+    <col min="31" max="31" width="9.140625" customWidth="true" style="2"/>
+    <col min="32" max="32" width="9.140625" customWidth="true" style="2"/>
+    <col min="33" max="33" width="9.140625" customWidth="true" style="2"/>
+    <col min="34" max="34" width="9.140625" customWidth="true" style="2"/>
+    <col min="35" max="35" width="9.140625" customWidth="true" style="2"/>
+    <col min="36" max="36" width="9.140625" customWidth="true" style="2"/>
+    <col min="37" max="37" width="9.140625" customWidth="true" style="2"/>
+    <col min="38" max="38" width="9.140625" customWidth="true" style="2"/>
+    <col min="39" max="39" width="9.140625" customWidth="true" style="2"/>
+    <col min="40" max="40" width="9.140625" customWidth="true" style="2"/>
+    <col min="41" max="41" width="9.140625" customWidth="true" style="2"/>
+    <col min="42" max="42" width="9.140625" customWidth="true" style="2"/>
+    <col min="43" max="43" width="9.140625" customWidth="true" style="2"/>
+    <col min="44" max="44" width="9.140625" customWidth="true" style="2"/>
+    <col min="45" max="45" width="9.140625" customWidth="true" style="2"/>
+    <col min="46" max="46" width="9.140625" customWidth="true" style="2"/>
+    <col min="47" max="47" width="9.140625" customWidth="true" style="2"/>
+    <col min="48" max="48" width="9.140625" customWidth="true" style="2"/>
+    <col min="49" max="49" width="9.140625" customWidth="true" style="2"/>
+    <col min="50" max="50" width="9.140625" customWidth="true" style="2"/>
+    <col min="51" max="51" width="9.140625" customWidth="true" style="2"/>
+    <col min="52" max="52" width="9.140625" customWidth="true" style="2"/>
+    <col min="53" max="53" width="9.140625" customWidth="true" style="2"/>
+    <col min="54" max="54" width="9.140625" customWidth="true" style="2"/>
+    <col min="55" max="55" width="9.140625" customWidth="true" style="2"/>
+    <col min="56" max="56" width="9.140625" customWidth="true" style="2"/>
+    <col min="57" max="57" width="9.140625" customWidth="true" style="2"/>
+    <col min="58" max="58" width="9.140625" customWidth="true" style="2"/>
+    <col min="59" max="59" width="9.140625" customWidth="true" style="2"/>
+    <col min="60" max="60" width="9.140625" customWidth="true" style="2"/>
+    <col min="61" max="61" width="9.140625" customWidth="true" style="2"/>
+    <col min="62" max="62" width="9.140625" customWidth="true" style="2"/>
+    <col min="63" max="63" width="9.140625" customWidth="true" style="2"/>
+    <col min="64" max="64" width="9.140625" customWidth="true" style="2"/>
+    <col min="65" max="65" width="9.140625" customWidth="true" style="2"/>
+    <col min="66" max="66" width="9.140625" customWidth="true" style="2"/>
+    <col min="67" max="67" width="9.140625" customWidth="true" style="2"/>
+    <col min="68" max="68" width="9.140625" customWidth="true" style="2"/>
+    <col min="69" max="69" width="9.140625" customWidth="true" style="2"/>
+    <col min="70" max="70" width="9.140625" customWidth="true" style="2"/>
+    <col min="71" max="71" width="9.140625" customWidth="true" style="2"/>
+    <col min="72" max="72" width="9.140625" customWidth="true" style="2"/>
+    <col min="73" max="73" width="9.140625" customWidth="true" style="2"/>
+    <col min="74" max="74" width="9.140625" customWidth="true" style="2"/>
+    <col min="75" max="75" width="9.140625" customWidth="true" style="2"/>
+    <col min="76" max="76" width="9.140625" customWidth="true" style="2"/>
+    <col min="77" max="77" width="9.140625" customWidth="true" style="2"/>
+    <col min="78" max="78" width="9.140625" customWidth="true" style="2"/>
+    <col min="79" max="79" width="9.140625" customWidth="true" style="2"/>
+    <col min="80" max="80" width="9.140625" customWidth="true" style="2"/>
+    <col min="81" max="81" width="9.140625" customWidth="true" style="2"/>
+    <col min="82" max="82" width="9.140625" customWidth="true" style="2"/>
+    <col min="83" max="83" width="9.140625" customWidth="true" style="2"/>
+    <col min="84" max="84" width="9.140625" customWidth="true" style="2"/>
+    <col min="85" max="85" width="9.140625" customWidth="true" style="2"/>
+    <col min="86" max="86" width="9.140625" customWidth="true" style="2"/>
+    <col min="87" max="87" width="9.140625" customWidth="true" style="2"/>
+    <col min="88" max="88" width="9.140625" customWidth="true" style="2"/>
+    <col min="89" max="89" width="9.140625" customWidth="true" style="2"/>
+    <col min="90" max="90" width="9.140625" customWidth="true" style="2"/>
+    <col min="91" max="91" width="9.140625" customWidth="true" style="2"/>
+    <col min="92" max="92" width="9.140625" customWidth="true" style="2"/>
+    <col min="93" max="93" width="9.140625" customWidth="true" style="2"/>
+    <col min="94" max="94" width="9.140625" customWidth="true" style="2"/>
+    <col min="95" max="95" width="9.140625" customWidth="true" style="2"/>
+    <col min="96" max="96" width="9.140625" customWidth="true" style="2"/>
+    <col min="97" max="97" width="9.140625" customWidth="true" style="2"/>
+    <col min="98" max="98" width="9.140625" customWidth="true" style="2"/>
+    <col min="99" max="99" width="9.140625" customWidth="true" style="2"/>
+    <col min="100" max="100" width="9.140625" customWidth="true" style="2"/>
+    <col min="101" max="101" width="9.140625" customWidth="true" style="2"/>
+    <col min="102" max="102" width="9.140625" customWidth="true" style="2"/>
+    <col min="103" max="103" width="9.140625" customWidth="true" style="2"/>
+    <col min="104" max="104" width="9.140625" customWidth="true" style="2"/>
+    <col min="105" max="105" width="9.140625" customWidth="true" style="2"/>
+    <col min="106" max="106" width="9.140625" customWidth="true" style="2"/>
+    <col min="107" max="107" width="9.140625" customWidth="true" style="2"/>
+    <col min="108" max="108" width="9.140625" customWidth="true" style="2"/>
+    <col min="109" max="109" width="9.140625" customWidth="true" style="2"/>
+    <col min="110" max="110" width="9.140625" customWidth="true" style="2"/>
+    <col min="111" max="111" width="9.140625" customWidth="true" style="2"/>
+    <col min="112" max="112" width="9.140625" customWidth="true" style="2"/>
+    <col min="113" max="113" width="9.140625" customWidth="true" style="2"/>
+    <col min="114" max="114" width="9.140625" customWidth="true" style="2"/>
+    <col min="115" max="115" width="9.140625" customWidth="true" style="2"/>
+    <col min="116" max="116" width="9.140625" customWidth="true" style="2"/>
+    <col min="117" max="117" width="9.140625" customWidth="true" style="2"/>
+    <col min="118" max="118" width="9.140625" customWidth="true" style="2"/>
+    <col min="119" max="119" width="9.140625" customWidth="true" style="2"/>
+    <col min="120" max="120" width="9.140625" customWidth="true" style="2"/>
+    <col min="121" max="121" width="9.140625" customWidth="true" style="2"/>
+    <col min="122" max="122" width="9.140625" customWidth="true" style="2"/>
+    <col min="123" max="123" width="9.140625" customWidth="true" style="2"/>
+    <col min="124" max="124" width="9.140625" customWidth="true" style="2"/>
+    <col min="125" max="125" width="9.140625" customWidth="true" style="2"/>
+    <col min="126" max="126" width="9.140625" customWidth="true" style="2"/>
+    <col min="127" max="127" width="9.140625" customWidth="true" style="2"/>
+    <col min="128" max="128" width="9.140625" customWidth="true" style="2"/>
+    <col min="129" max="129" width="9.140625" customWidth="true" style="2"/>
+    <col min="130" max="130" width="9.140625" customWidth="true" style="2"/>
+    <col min="131" max="131" width="9.140625" customWidth="true" style="2"/>
+    <col min="132" max="132" width="9.140625" customWidth="true" style="2"/>
+    <col min="133" max="133" width="9.140625" customWidth="true" style="2"/>
+    <col min="134" max="134" width="9.140625" customWidth="true" style="2"/>
+    <col min="135" max="135" width="9.140625" customWidth="true" style="2"/>
+    <col min="136" max="136" width="9.140625" customWidth="true" style="2"/>
+    <col min="137" max="137" width="9.140625" customWidth="true" style="2"/>
+    <col min="138" max="138" width="9.140625" customWidth="true" style="2"/>
+    <col min="139" max="139" width="9.140625" customWidth="true" style="2"/>
+    <col min="140" max="140" width="9.140625" customWidth="true" style="2"/>
+    <col min="141" max="141" width="9.140625" customWidth="true" style="2"/>
+    <col min="142" max="142" width="9.140625" customWidth="true" style="2"/>
+    <col min="143" max="143" width="9.140625" customWidth="true" style="2"/>
+    <col min="144" max="144" width="9.140625" customWidth="true" style="2"/>
+    <col min="145" max="145" width="9.140625" customWidth="true" style="2"/>
+    <col min="146" max="146" width="9.140625" customWidth="true" style="2"/>
+    <col min="147" max="147" width="9.140625" customWidth="true" style="2"/>
+    <col min="148" max="148" width="9.140625" customWidth="true" style="2"/>
+    <col min="149" max="149" width="9.140625" customWidth="true" style="2"/>
+    <col min="150" max="150" width="9.140625" customWidth="true" style="2"/>
+    <col min="151" max="151" width="9.140625" customWidth="true" style="2"/>
+    <col min="152" max="152" width="9.140625" customWidth="true" style="2"/>
+    <col min="153" max="153" width="9.140625" customWidth="true" style="2"/>
+    <col min="154" max="154" width="9.140625" customWidth="true" style="2"/>
+    <col min="155" max="155" width="9.140625" customWidth="true" style="2"/>
+    <col min="156" max="156" width="9.140625" customWidth="true" style="2"/>
+    <col min="157" max="157" width="9.140625" customWidth="true" style="2"/>
+    <col min="158" max="158" width="9.140625" customWidth="true" style="2"/>
+    <col min="159" max="159" width="9.140625" customWidth="true" style="2"/>
+    <col min="160" max="160" width="9.140625" customWidth="true" style="2"/>
+    <col min="161" max="161" width="9.140625" customWidth="true" style="2"/>
+    <col min="162" max="162" width="9.140625" customWidth="true" style="2"/>
+    <col min="163" max="163" width="9.140625" customWidth="true" style="2"/>
+    <col min="164" max="164" width="9.140625" customWidth="true" style="2"/>
+    <col min="165" max="165" width="9.140625" customWidth="true" style="2"/>
+    <col min="166" max="166" width="9.140625" customWidth="true" style="2"/>
+    <col min="167" max="167" width="9.140625" customWidth="true" style="2"/>
+    <col min="168" max="168" width="9.140625" customWidth="true" style="2"/>
+    <col min="169" max="169" width="9.140625" customWidth="true" style="2"/>
+    <col min="170" max="170" width="9.140625" customWidth="true" style="2"/>
+    <col min="171" max="171" width="9.140625" customWidth="true" style="2"/>
+    <col min="172" max="172" width="9.140625" customWidth="true" style="2"/>
+    <col min="173" max="173" width="9.140625" customWidth="true" style="2"/>
+    <col min="174" max="174" width="9.140625" customWidth="true" style="2"/>
+    <col min="175" max="175" width="9.140625" customWidth="true" style="2"/>
+    <col min="176" max="176" width="9.140625" customWidth="true" style="2"/>
+    <col min="177" max="177" width="9.140625" customWidth="true" style="2"/>
+    <col min="178" max="178" width="9.140625" customWidth="true" style="2"/>
+    <col min="179" max="179" width="9.140625" customWidth="true" style="2"/>
+    <col min="180" max="180" width="9.140625" customWidth="true" style="2"/>
+    <col min="181" max="181" width="9.140625" customWidth="true" style="2"/>
+    <col min="182" max="182" width="9.140625" customWidth="true" style="2"/>
+    <col min="183" max="183" width="9.140625" customWidth="true" style="2"/>
+    <col min="184" max="184" width="9.140625" customWidth="true" style="2"/>
+    <col min="185" max="185" width="9.140625" customWidth="true" style="2"/>
+    <col min="186" max="186" width="9.140625" customWidth="true" style="2"/>
+    <col min="187" max="187" width="9.140625" customWidth="true" style="2"/>
+    <col min="188" max="188" width="9.140625" customWidth="true" style="2"/>
+    <col min="189" max="189" width="9.140625" customWidth="true" style="2"/>
+    <col min="190" max="190" width="9.140625" customWidth="true" style="2"/>
+    <col min="191" max="191" width="9.140625" customWidth="true" style="2"/>
+    <col min="192" max="192" width="9.140625" customWidth="true" style="2"/>
+    <col min="193" max="193" width="9.140625" customWidth="true" style="2"/>
+    <col min="194" max="194" width="9.140625" customWidth="true" style="2"/>
+    <col min="195" max="195" width="9.140625" customWidth="true" style="2"/>
+    <col min="196" max="196" width="9.140625" customWidth="true" style="2"/>
+    <col min="197" max="197" width="9.140625" customWidth="true" style="2"/>
+    <col min="198" max="198" width="9.140625" customWidth="true" style="2"/>
+    <col min="199" max="199" width="9.140625" customWidth="true" style="2"/>
+    <col min="200" max="200" width="9.140625" customWidth="true" style="2"/>
+    <col min="201" max="201" width="9.140625" customWidth="true" style="2"/>
+    <col min="202" max="202" width="9.140625" customWidth="true" style="2"/>
+    <col min="203" max="203" width="9.140625" customWidth="true" style="2"/>
+    <col min="204" max="204" width="9.140625" customWidth="true" style="2"/>
+    <col min="205" max="205" width="9.140625" customWidth="true" style="2"/>
+    <col min="206" max="206" width="9.140625" customWidth="true" style="2"/>
+    <col min="207" max="207" width="9.140625" customWidth="true" style="2"/>
+    <col min="208" max="208" width="9.140625" customWidth="true" style="2"/>
+    <col min="209" max="209" width="9.140625" customWidth="true" style="2"/>
+    <col min="210" max="210" width="9.140625" customWidth="true" style="2"/>
+    <col min="211" max="211" width="9.140625" customWidth="true" style="2"/>
+    <col min="212" max="212" width="9.140625" customWidth="true" style="2"/>
+    <col min="213" max="213" width="9.140625" customWidth="true" style="2"/>
+    <col min="214" max="214" width="9.140625" customWidth="true" style="2"/>
+    <col min="215" max="215" width="9.140625" customWidth="true" style="2"/>
+    <col min="216" max="216" width="9.140625" customWidth="true" style="2"/>
+    <col min="217" max="217" width="9.140625" customWidth="true" style="2"/>
+    <col min="218" max="218" width="9.140625" customWidth="true" style="2"/>
+    <col min="219" max="219" width="9.140625" customWidth="true" style="2"/>
+    <col min="220" max="220" width="9.140625" customWidth="true" style="2"/>
+    <col min="221" max="221" width="9.140625" customWidth="true" style="2"/>
+    <col min="222" max="222" width="9.140625" customWidth="true" style="2"/>
+    <col min="223" max="223" width="9.140625" customWidth="true" style="2"/>
+    <col min="224" max="224" width="9.140625" customWidth="true" style="2"/>
+    <col min="225" max="225" width="9.140625" customWidth="true" style="2"/>
+    <col min="226" max="226" width="9.140625" customWidth="true" style="2"/>
+    <col min="227" max="227" width="9.140625" customWidth="true" style="2"/>
+    <col min="228" max="228" width="9.140625" customWidth="true" style="2"/>
+    <col min="229" max="229" width="9.140625" customWidth="true" style="2"/>
+    <col min="230" max="230" width="9.140625" customWidth="true" style="2"/>
+    <col min="231" max="231" width="9.140625" customWidth="true" style="2"/>
+    <col min="232" max="232" width="9.140625" customWidth="true" style="2"/>
+    <col min="233" max="233" width="9.140625" customWidth="true" style="2"/>
+    <col min="234" max="234" width="9.140625" customWidth="true" style="2"/>
+    <col min="235" max="235" width="9.140625" customWidth="true" style="2"/>
+    <col min="236" max="236" width="9.140625" customWidth="true" style="2"/>
+    <col min="237" max="237" width="9.140625" customWidth="true" style="2"/>
+    <col min="238" max="238" width="9.140625" customWidth="true" style="2"/>
+    <col min="239" max="239" width="9.140625" customWidth="true" style="2"/>
+    <col min="240" max="240" width="9.140625" customWidth="true" style="2"/>
+    <col min="241" max="241" width="9.140625" customWidth="true" style="2"/>
+    <col min="242" max="242" width="9.140625" customWidth="true" style="2"/>
+    <col min="243" max="243" width="9.140625" customWidth="true" style="2"/>
+    <col min="244" max="244" width="9.140625" customWidth="true" style="2"/>
+    <col min="245" max="245" width="9.140625" customWidth="true" style="2"/>
+    <col min="246" max="246" width="9.140625" customWidth="true" style="2"/>
+    <col min="247" max="247" width="9.140625" customWidth="true" style="2"/>
+    <col min="248" max="248" width="9.140625" customWidth="true" style="2"/>
+    <col min="249" max="249" width="9.140625" customWidth="true" style="2"/>
+    <col min="250" max="250" width="9.140625" customWidth="true" style="2"/>
+    <col min="251" max="251" width="9.140625" customWidth="true" style="2"/>
+    <col min="252" max="252" width="9.140625" customWidth="true" style="2"/>
+    <col min="253" max="253" width="9.140625" customWidth="true" style="2"/>
+    <col min="254" max="254" width="9.140625" customWidth="true" style="2"/>
+    <col min="255" max="255" width="9.140625" customWidth="true" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" customHeight="1" ht="18">
@@ -945,7 +937,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:255" customHeight="1" ht="15.6">
+    <row r="4" spans="1:255" customHeight="1" ht="15.75">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -963,7 +955,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:255" customHeight="1" ht="15.6">
+    <row r="5" spans="1:255" customHeight="1" ht="15.75">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1123,7 +1115,7 @@
       <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="15">
@@ -1133,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="15">
         <v>6</v>
       </c>
       <c r="G9" s="15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="15">
         <v>6</v>
@@ -1151,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L9" s="15">
         <v>4</v>
@@ -1174,7 +1166,7 @@
       <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="15">
@@ -1184,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="15">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" s="15">
         <v>0</v>
@@ -1202,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L10" s="15">
         <v>0</v>
@@ -1225,7 +1217,7 @@
       <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="15">
@@ -1235,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="15">
         <v>4</v>
       </c>
       <c r="G11" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" s="15">
         <v>4</v>
@@ -1253,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" s="15">
         <v>1</v>
@@ -1275,7 +1267,7 @@
       <c r="A12" s="15">
         <v>4</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15">
@@ -1285,13 +1277,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="15">
         <v>3</v>
       </c>
       <c r="G12" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="15">
         <v>3</v>
@@ -1303,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" s="15">
         <v>0</v>
@@ -1325,7 +1317,7 @@
       <c r="A13" s="15">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="15">
@@ -1375,7 +1367,7 @@
       <c r="A14" s="15">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="15">
@@ -1385,13 +1377,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
       </c>
       <c r="G14" s="15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="15">
         <v>1</v>
@@ -1403,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L14" s="15">
         <v>1</v>
@@ -1421,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:255" customHeight="1" ht="13.8">
+    <row r="15" spans="1:255" customHeight="1" ht="16.5">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
@@ -1439,7 +1431,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:255" customHeight="1" ht="13.8">
+    <row r="16" spans="1:255" customHeight="1" ht="16.5">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
@@ -1460,19 +1452,19 @@
     <row r="17" spans="1:255" customHeight="1" ht="20">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N17" s="10"/>
@@ -1482,93 +1474,93 @@
     <row r="18" spans="1:255" customHeight="1" ht="20">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="1:255" customHeight="1" ht="13.8">
+    <row r="19" spans="1:255" customHeight="1" ht="16.5">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:255" customHeight="1" ht="13.8">
+    <row r="20" spans="1:255" customHeight="1" ht="16.5">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="1:255" customHeight="1" ht="13.8">
+    <row r="21" spans="1:255" customHeight="1" ht="16.5">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="1:255" customHeight="1" ht="13.8">
+    <row r="22" spans="1:255" customHeight="1" ht="16.5">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -1576,19 +1568,19 @@
     <row r="23" spans="1:255" customHeight="1" ht="20">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="10"/>
@@ -1598,26 +1590,26 @@
     <row r="24" spans="1:255" customHeight="1" ht="20">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="1:255" customHeight="1" ht="13.8">
+    <row r="25" spans="1:255" customHeight="1" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="10"/>
@@ -1635,7 +1627,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
     </row>
-    <row r="26" spans="1:255" customHeight="1" ht="13.8">
+    <row r="26" spans="1:255" customHeight="1" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
@@ -1653,7 +1645,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
     </row>
-    <row r="27" spans="1:255" customHeight="1" ht="13.8">
+    <row r="27" spans="1:255" customHeight="1" ht="16.5">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="10"/>
@@ -1671,7 +1663,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
     </row>
-    <row r="28" spans="1:255" customHeight="1" ht="13.8">
+    <row r="28" spans="1:255" customHeight="1" ht="16.5">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
@@ -1689,7 +1681,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
     </row>
-    <row r="29" spans="1:255" customHeight="1" ht="13.8">
+    <row r="29" spans="1:255" customHeight="1" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
@@ -1707,7 +1699,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
     </row>
-    <row r="30" spans="1:255" customHeight="1" ht="13.8">
+    <row r="30" spans="1:255" customHeight="1" ht="16.5">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
@@ -1725,7 +1717,7 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
     </row>
-    <row r="31" spans="1:255" customHeight="1" ht="13.8">
+    <row r="31" spans="1:255" customHeight="1" ht="16.5">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="10"/>
@@ -1743,7 +1735,7 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
     </row>
-    <row r="32" spans="1:255" customHeight="1" ht="13.8">
+    <row r="32" spans="1:255" customHeight="1" ht="16.5">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
@@ -1761,7 +1753,7 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
     </row>
-    <row r="33" spans="1:255" customHeight="1" ht="13.8">
+    <row r="33" spans="1:255" customHeight="1" ht="16.5">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
@@ -1779,7 +1771,7 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34" spans="1:255" customHeight="1" ht="13.8">
+    <row r="34" spans="1:255" customHeight="1" ht="16.5">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
@@ -1797,7 +1789,7 @@
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="1:255" customHeight="1" ht="13.8">
+    <row r="35" spans="1:255" customHeight="1" ht="16.5">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
@@ -1815,7 +1807,7 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" spans="1:255" customHeight="1" ht="13.8">
+    <row r="36" spans="1:255" customHeight="1" ht="16.5">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
@@ -1833,7 +1825,7 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" spans="1:255" customHeight="1" ht="13.8">
+    <row r="37" spans="1:255" customHeight="1" ht="16.5">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
@@ -1851,7 +1843,7 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" spans="1:255" customHeight="1" ht="13.8">
+    <row r="38" spans="1:255" customHeight="1" ht="16.5">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
@@ -1869,7 +1861,7 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="1:255" customHeight="1" ht="13.8">
+    <row r="39" spans="1:255" customHeight="1" ht="16.5">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -1887,7 +1879,7 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" spans="1:255" customHeight="1" ht="13.8">
+    <row r="40" spans="1:255" customHeight="1" ht="16.5">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -1905,7 +1897,7 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
     </row>
-    <row r="41" spans="1:255" customHeight="1" ht="13.8">
+    <row r="41" spans="1:255" customHeight="1" ht="16.5">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
@@ -1923,7 +1915,7 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
     </row>
-    <row r="42" spans="1:255" customHeight="1" ht="13.8">
+    <row r="42" spans="1:255" customHeight="1" ht="16.5">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
@@ -1941,7 +1933,7 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
     </row>
-    <row r="43" spans="1:255" customHeight="1" ht="13.8">
+    <row r="43" spans="1:255" customHeight="1" ht="16.5">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
@@ -1959,7 +1951,7 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
     </row>
-    <row r="44" spans="1:255" customHeight="1" ht="13.8">
+    <row r="44" spans="1:255" customHeight="1" ht="16.5">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
@@ -1977,7 +1969,7 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
     </row>
-    <row r="45" spans="1:255" customHeight="1" ht="13.8">
+    <row r="45" spans="1:255" customHeight="1" ht="16.5">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="10"/>
@@ -1995,7 +1987,7 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
     </row>
-    <row r="46" spans="1:255" customHeight="1" ht="13.8">
+    <row r="46" spans="1:255" customHeight="1" ht="16.5">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="10"/>
@@ -2013,7 +2005,7 @@
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
     </row>
-    <row r="47" spans="1:255" customHeight="1" ht="13.8">
+    <row r="47" spans="1:255" customHeight="1" ht="16.5">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="10"/>
@@ -2031,7 +2023,7 @@
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
     </row>
-    <row r="48" spans="1:255" customHeight="1" ht="13.8">
+    <row r="48" spans="1:255" customHeight="1" ht="16.5">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="10"/>
@@ -2049,7 +2041,7 @@
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
     </row>
-    <row r="49" spans="1:255" customHeight="1" ht="13.8">
+    <row r="49" spans="1:255" customHeight="1" ht="16.5">
       <c r="A49" s="10"/>
       <c r="B49" s="11"/>
       <c r="C49" s="10"/>
@@ -2067,7 +2059,7 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
     </row>
-    <row r="50" spans="1:255" customHeight="1" ht="13.8">
+    <row r="50" spans="1:255" customHeight="1" ht="16.5">
       <c r="A50" s="10"/>
       <c r="B50" s="11"/>
       <c r="C50" s="10"/>
@@ -2085,7 +2077,7 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
     </row>
-    <row r="51" spans="1:255" customHeight="1" ht="13.8">
+    <row r="51" spans="1:255" customHeight="1" ht="16.5">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
       <c r="C51" s="10"/>
@@ -2103,7 +2095,7 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
     </row>
-    <row r="52" spans="1:255" customHeight="1" ht="13.8">
+    <row r="52" spans="1:255" customHeight="1" ht="16.5">
       <c r="A52" s="10"/>
       <c r="B52" s="11"/>
       <c r="C52" s="10"/>
@@ -2121,7 +2113,7 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
     </row>
-    <row r="53" spans="1:255" customHeight="1" ht="13.8">
+    <row r="53" spans="1:255" customHeight="1" ht="16.5">
       <c r="A53" s="10"/>
       <c r="B53" s="11"/>
       <c r="C53" s="10"/>
@@ -2139,7 +2131,7 @@
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
     </row>
-    <row r="54" spans="1:255" customHeight="1" ht="13.8">
+    <row r="54" spans="1:255" customHeight="1" ht="16.5">
       <c r="A54" s="10"/>
       <c r="B54" s="11"/>
       <c r="C54" s="10"/>
@@ -2157,7 +2149,7 @@
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
     </row>
-    <row r="55" spans="1:255" customHeight="1" ht="13.8">
+    <row r="55" spans="1:255" customHeight="1" ht="16.5">
       <c r="A55" s="10"/>
       <c r="B55" s="11"/>
       <c r="C55" s="10"/>
@@ -2175,7 +2167,7 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
     </row>
-    <row r="56" spans="1:255" customHeight="1" ht="13.8">
+    <row r="56" spans="1:255" customHeight="1" ht="16.5">
       <c r="A56" s="10"/>
       <c r="B56" s="11"/>
       <c r="C56" s="10"/>
@@ -2193,7 +2185,7 @@
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
     </row>
-    <row r="57" spans="1:255" customHeight="1" ht="13.8">
+    <row r="57" spans="1:255" customHeight="1" ht="16.5">
       <c r="A57" s="10"/>
       <c r="B57" s="11"/>
       <c r="C57" s="10"/>
@@ -2211,7 +2203,7 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
     </row>
-    <row r="58" spans="1:255" customHeight="1" ht="13.8">
+    <row r="58" spans="1:255" customHeight="1" ht="16.5">
       <c r="A58" s="10"/>
       <c r="B58" s="11"/>
       <c r="C58" s="10"/>
@@ -2229,7 +2221,7 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
     </row>
-    <row r="59" spans="1:255" customHeight="1" ht="13.8">
+    <row r="59" spans="1:255" customHeight="1" ht="16.5">
       <c r="A59" s="10"/>
       <c r="B59" s="11"/>
       <c r="C59" s="10"/>
@@ -2247,7 +2239,7 @@
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
     </row>
-    <row r="60" spans="1:255" customHeight="1" ht="13.8">
+    <row r="60" spans="1:255" customHeight="1" ht="16.5">
       <c r="A60" s="10"/>
       <c r="B60" s="11"/>
       <c r="C60" s="10"/>
@@ -2265,7 +2257,7 @@
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
     </row>
-    <row r="61" spans="1:255" customHeight="1" ht="13.8">
+    <row r="61" spans="1:255" customHeight="1" ht="16.5">
       <c r="A61" s="10"/>
       <c r="B61" s="11"/>
       <c r="C61" s="10"/>
@@ -2283,7 +2275,7 @@
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
     </row>
-    <row r="62" spans="1:255" customHeight="1" ht="13.8">
+    <row r="62" spans="1:255" customHeight="1" ht="16.5">
       <c r="A62" s="10"/>
       <c r="B62" s="11"/>
       <c r="C62" s="10"/>
@@ -2301,7 +2293,7 @@
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
     </row>
-    <row r="63" spans="1:255" customHeight="1" ht="13.8">
+    <row r="63" spans="1:255" customHeight="1" ht="16.5">
       <c r="A63" s="10"/>
       <c r="B63" s="11"/>
       <c r="C63" s="10"/>
@@ -2319,7 +2311,7 @@
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
     </row>
-    <row r="64" spans="1:255" customHeight="1" ht="13.8">
+    <row r="64" spans="1:255" customHeight="1" ht="16.5">
       <c r="A64" s="10"/>
       <c r="B64" s="11"/>
       <c r="C64" s="10"/>
@@ -2337,7 +2329,7 @@
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
     </row>
-    <row r="65" spans="1:255" customHeight="1" ht="13.8">
+    <row r="65" spans="1:255" customHeight="1" ht="16.5">
       <c r="A65" s="10"/>
       <c r="B65" s="11"/>
       <c r="C65" s="10"/>
@@ -2355,7 +2347,7 @@
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
     </row>
-    <row r="66" spans="1:255" customHeight="1" ht="13.8">
+    <row r="66" spans="1:255" customHeight="1" ht="16.5">
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
       <c r="C66" s="10"/>
@@ -2373,7 +2365,7 @@
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
     </row>
-    <row r="67" spans="1:255" customHeight="1" ht="13.8">
+    <row r="67" spans="1:255" customHeight="1" ht="16.5">
       <c r="A67" s="10"/>
       <c r="B67" s="11"/>
       <c r="C67" s="10"/>
@@ -2391,7 +2383,7 @@
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
     </row>
-    <row r="68" spans="1:255" customHeight="1" ht="13.8">
+    <row r="68" spans="1:255" customHeight="1" ht="16.5">
       <c r="A68" s="10"/>
       <c r="B68" s="11"/>
       <c r="C68" s="10"/>
@@ -2409,7 +2401,7 @@
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
     </row>
-    <row r="69" spans="1:255" customHeight="1" ht="13.8">
+    <row r="69" spans="1:255" customHeight="1" ht="16.5">
       <c r="A69" s="10"/>
       <c r="B69" s="11"/>
       <c r="C69" s="10"/>
@@ -2427,7 +2419,7 @@
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
     </row>
-    <row r="70" spans="1:255" customHeight="1" ht="13.8">
+    <row r="70" spans="1:255" customHeight="1" ht="16.5">
       <c r="A70" s="10"/>
       <c r="B70" s="11"/>
       <c r="C70" s="10"/>
@@ -2445,7 +2437,7 @@
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
     </row>
-    <row r="71" spans="1:255" customHeight="1" ht="13.8">
+    <row r="71" spans="1:255" customHeight="1" ht="16.5">
       <c r="A71" s="10"/>
       <c r="B71" s="11"/>
       <c r="C71" s="10"/>
@@ -2463,7 +2455,7 @@
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
     </row>
-    <row r="72" spans="1:255" customHeight="1" ht="13.8">
+    <row r="72" spans="1:255" customHeight="1" ht="16.5">
       <c r="A72" s="10"/>
       <c r="B72" s="11"/>
       <c r="C72" s="10"/>
@@ -2481,7 +2473,7 @@
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
     </row>
-    <row r="73" spans="1:255" customHeight="1" ht="13.8">
+    <row r="73" spans="1:255" customHeight="1" ht="16.5">
       <c r="A73" s="10"/>
       <c r="B73" s="11"/>
       <c r="C73" s="10"/>
@@ -2499,7 +2491,7 @@
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
     </row>
-    <row r="74" spans="1:255" customHeight="1" ht="13.8">
+    <row r="74" spans="1:255" customHeight="1" ht="16.5">
       <c r="A74" s="10"/>
       <c r="B74" s="11"/>
       <c r="C74" s="10"/>
@@ -2517,7 +2509,7 @@
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
     </row>
-    <row r="75" spans="1:255" customHeight="1" ht="13.8">
+    <row r="75" spans="1:255" customHeight="1" ht="16.5">
       <c r="A75" s="10"/>
       <c r="B75" s="11"/>
       <c r="C75" s="10"/>
@@ -2535,7 +2527,7 @@
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
     </row>
-    <row r="76" spans="1:255" customHeight="1" ht="13.8">
+    <row r="76" spans="1:255" customHeight="1" ht="16.5">
       <c r="A76" s="10"/>
       <c r="B76" s="11"/>
       <c r="C76" s="10"/>
@@ -2553,7 +2545,7 @@
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
     </row>
-    <row r="77" spans="1:255" customHeight="1" ht="13.8">
+    <row r="77" spans="1:255" customHeight="1" ht="16.5">
       <c r="A77" s="10"/>
       <c r="B77" s="11"/>
       <c r="C77" s="10"/>
@@ -2571,7 +2563,7 @@
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
     </row>
-    <row r="78" spans="1:255" customHeight="1" ht="13.8">
+    <row r="78" spans="1:255" customHeight="1" ht="16.5">
       <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="10"/>
@@ -2589,7 +2581,7 @@
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
     </row>
-    <row r="79" spans="1:255" customHeight="1" ht="13.8">
+    <row r="79" spans="1:255" customHeight="1" ht="16.5">
       <c r="A79" s="10"/>
       <c r="B79" s="11"/>
       <c r="C79" s="10"/>
@@ -2607,7 +2599,7 @@
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
     </row>
-    <row r="80" spans="1:255" customHeight="1" ht="13.8">
+    <row r="80" spans="1:255" customHeight="1" ht="16.5">
       <c r="A80" s="10"/>
       <c r="B80" s="11"/>
       <c r="C80" s="10"/>
@@ -2625,7 +2617,7 @@
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
     </row>
-    <row r="81" spans="1:255" customHeight="1" ht="13.8">
+    <row r="81" spans="1:255" customHeight="1" ht="16.5">
       <c r="A81" s="10"/>
       <c r="B81" s="11"/>
       <c r="C81" s="10"/>
@@ -2643,7 +2635,7 @@
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
     </row>
-    <row r="82" spans="1:255" customHeight="1" ht="13.8">
+    <row r="82" spans="1:255" customHeight="1" ht="16.5">
       <c r="A82" s="10"/>
       <c r="B82" s="11"/>
       <c r="C82" s="10"/>
@@ -2661,7 +2653,7 @@
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
     </row>
-    <row r="83" spans="1:255" customHeight="1" ht="13.8">
+    <row r="83" spans="1:255" customHeight="1" ht="16.5">
       <c r="A83" s="10"/>
       <c r="B83" s="11"/>
       <c r="C83" s="10"/>
@@ -2679,7 +2671,7 @@
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
     </row>
-    <row r="84" spans="1:255" customHeight="1" ht="13.8">
+    <row r="84" spans="1:255" customHeight="1" ht="16.5">
       <c r="A84" s="10"/>
       <c r="B84" s="11"/>
       <c r="C84" s="10"/>
@@ -2697,7 +2689,7 @@
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
     </row>
-    <row r="85" spans="1:255" customHeight="1" ht="13.8">
+    <row r="85" spans="1:255" customHeight="1" ht="16.5">
       <c r="A85" s="10"/>
       <c r="B85" s="11"/>
       <c r="C85" s="10"/>
@@ -2715,7 +2707,7 @@
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
     </row>
-    <row r="86" spans="1:255" customHeight="1" ht="13.8">
+    <row r="86" spans="1:255" customHeight="1" ht="16.5">
       <c r="A86" s="10"/>
       <c r="B86" s="11"/>
       <c r="C86" s="10"/>
@@ -2733,7 +2725,7 @@
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
     </row>
-    <row r="87" spans="1:255" customHeight="1" ht="13.8">
+    <row r="87" spans="1:255" customHeight="1" ht="16.5">
       <c r="A87" s="10"/>
       <c r="B87" s="11"/>
       <c r="C87" s="10"/>
@@ -2751,7 +2743,7 @@
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
     </row>
-    <row r="88" spans="1:255" customHeight="1" ht="13.8">
+    <row r="88" spans="1:255" customHeight="1" ht="16.5">
       <c r="A88" s="10"/>
       <c r="B88" s="11"/>
       <c r="C88" s="10"/>
@@ -2769,7 +2761,7 @@
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
     </row>
-    <row r="89" spans="1:255" customHeight="1" ht="13.8">
+    <row r="89" spans="1:255" customHeight="1" ht="16.5">
       <c r="A89" s="10"/>
       <c r="B89" s="11"/>
       <c r="C89" s="10"/>
@@ -2787,7 +2779,7 @@
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
     </row>
-    <row r="90" spans="1:255" customHeight="1" ht="13.8">
+    <row r="90" spans="1:255" customHeight="1" ht="16.5">
       <c r="A90" s="10"/>
       <c r="B90" s="11"/>
       <c r="C90" s="10"/>
@@ -2805,7 +2797,7 @@
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
     </row>
-    <row r="91" spans="1:255" customHeight="1" ht="13.8">
+    <row r="91" spans="1:255" customHeight="1" ht="16.5">
       <c r="A91" s="10"/>
       <c r="B91" s="11"/>
       <c r="C91" s="10"/>
@@ -2823,7 +2815,7 @@
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
     </row>
-    <row r="92" spans="1:255" customHeight="1" ht="13.8">
+    <row r="92" spans="1:255" customHeight="1" ht="16.5">
       <c r="A92" s="10"/>
       <c r="B92" s="11"/>
       <c r="C92" s="10"/>
@@ -2841,7 +2833,7 @@
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
     </row>
-    <row r="93" spans="1:255" customHeight="1" ht="13.8">
+    <row r="93" spans="1:255" customHeight="1" ht="16.5">
       <c r="A93" s="10"/>
       <c r="B93" s="11"/>
       <c r="C93" s="10"/>
@@ -2859,7 +2851,7 @@
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
     </row>
-    <row r="94" spans="1:255" customHeight="1" ht="13.8">
+    <row r="94" spans="1:255" customHeight="1" ht="16.5">
       <c r="A94" s="10"/>
       <c r="B94" s="11"/>
       <c r="C94" s="10"/>
@@ -2877,7 +2869,7 @@
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
     </row>
-    <row r="95" spans="1:255" customHeight="1" ht="13.8">
+    <row r="95" spans="1:255" customHeight="1" ht="16.5">
       <c r="A95" s="10"/>
       <c r="B95" s="11"/>
       <c r="C95" s="10"/>
@@ -2895,7 +2887,7 @@
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
     </row>
-    <row r="96" spans="1:255" customHeight="1" ht="13.8">
+    <row r="96" spans="1:255" customHeight="1" ht="16.5">
       <c r="A96" s="10"/>
       <c r="B96" s="11"/>
       <c r="C96" s="10"/>
@@ -2913,7 +2905,7 @@
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
     </row>
-    <row r="97" spans="1:255" customHeight="1" ht="13.8">
+    <row r="97" spans="1:255" customHeight="1" ht="16.5">
       <c r="A97" s="10"/>
       <c r="B97" s="11"/>
       <c r="C97" s="10"/>
@@ -2931,7 +2923,7 @@
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
     </row>
-    <row r="98" spans="1:255" customHeight="1" ht="13.8">
+    <row r="98" spans="1:255" customHeight="1" ht="16.5">
       <c r="A98" s="10"/>
       <c r="B98" s="11"/>
       <c r="C98" s="10"/>
@@ -2949,7 +2941,7 @@
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
     </row>
-    <row r="99" spans="1:255" customHeight="1" ht="13.8">
+    <row r="99" spans="1:255" customHeight="1" ht="16.5">
       <c r="A99" s="10"/>
       <c r="B99" s="11"/>
       <c r="C99" s="10"/>
@@ -2967,7 +2959,7 @@
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
     </row>
-    <row r="100" spans="1:255" customHeight="1" ht="13.8">
+    <row r="100" spans="1:255" customHeight="1" ht="16.5">
       <c r="A100" s="10"/>
       <c r="B100" s="11"/>
       <c r="C100" s="10"/>
@@ -2985,7 +2977,7 @@
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
     </row>
-    <row r="101" spans="1:255" customHeight="1" ht="13.8">
+    <row r="101" spans="1:255" customHeight="1" ht="16.5">
       <c r="A101" s="10"/>
       <c r="B101" s="11"/>
       <c r="C101" s="10"/>
@@ -3003,7 +2995,7 @@
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
     </row>
-    <row r="102" spans="1:255" customHeight="1" ht="13.8">
+    <row r="102" spans="1:255" customHeight="1" ht="16.5">
       <c r="A102" s="10"/>
       <c r="B102" s="11"/>
       <c r="C102" s="10"/>
@@ -3021,7 +3013,7 @@
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
     </row>
-    <row r="103" spans="1:255" customHeight="1" ht="13.8">
+    <row r="103" spans="1:255" customHeight="1" ht="16.5">
       <c r="A103" s="10"/>
       <c r="B103" s="11"/>
       <c r="C103" s="10"/>
@@ -3039,7 +3031,7 @@
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
     </row>
-    <row r="104" spans="1:255" customHeight="1" ht="13.8">
+    <row r="104" spans="1:255" customHeight="1" ht="16.5">
       <c r="A104" s="10"/>
       <c r="B104" s="11"/>
       <c r="C104" s="10"/>
@@ -3057,7 +3049,7 @@
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
     </row>
-    <row r="105" spans="1:255" customHeight="1" ht="13.8">
+    <row r="105" spans="1:255" customHeight="1" ht="16.5">
       <c r="A105" s="10"/>
       <c r="B105" s="11"/>
       <c r="C105" s="10"/>
@@ -3075,7 +3067,7 @@
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
     </row>
-    <row r="106" spans="1:255" customHeight="1" ht="13.8">
+    <row r="106" spans="1:255" customHeight="1" ht="16.5">
       <c r="A106" s="10"/>
       <c r="B106" s="11"/>
       <c r="C106" s="10"/>
@@ -3093,7 +3085,7 @@
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
     </row>
-    <row r="107" spans="1:255" customHeight="1" ht="13.8">
+    <row r="107" spans="1:255" customHeight="1" ht="16.5">
       <c r="A107" s="10"/>
       <c r="B107" s="11"/>
       <c r="C107" s="10"/>
@@ -3111,7 +3103,7 @@
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
     </row>
-    <row r="108" spans="1:255" customHeight="1" ht="13.8">
+    <row r="108" spans="1:255" customHeight="1" ht="16.5">
       <c r="A108" s="10"/>
       <c r="B108" s="11"/>
       <c r="C108" s="10"/>
@@ -3129,7 +3121,7 @@
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
     </row>
-    <row r="109" spans="1:255" customHeight="1" ht="13.8">
+    <row r="109" spans="1:255" customHeight="1" ht="16.5">
       <c r="A109" s="10"/>
       <c r="B109" s="11"/>
       <c r="C109" s="10"/>
@@ -3147,7 +3139,7 @@
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
     </row>
-    <row r="110" spans="1:255" customHeight="1" ht="13.8">
+    <row r="110" spans="1:255" customHeight="1" ht="16.5">
       <c r="A110" s="10"/>
       <c r="B110" s="11"/>
       <c r="C110" s="10"/>
@@ -3165,7 +3157,7 @@
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
     </row>
-    <row r="111" spans="1:255" customHeight="1" ht="13.8">
+    <row r="111" spans="1:255" customHeight="1" ht="16.5">
       <c r="A111" s="10"/>
       <c r="B111" s="11"/>
       <c r="C111" s="10"/>
@@ -3183,7 +3175,7 @@
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
     </row>
-    <row r="112" spans="1:255" customHeight="1" ht="13.8">
+    <row r="112" spans="1:255" customHeight="1" ht="16.5">
       <c r="A112" s="10"/>
       <c r="B112" s="11"/>
       <c r="C112" s="10"/>
@@ -3201,7 +3193,7 @@
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
     </row>
-    <row r="113" spans="1:255" customHeight="1" ht="13.8">
+    <row r="113" spans="1:255" customHeight="1" ht="16.5">
       <c r="A113" s="10"/>
       <c r="B113" s="11"/>
       <c r="C113" s="10"/>
@@ -3222,6 +3214,7 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
@@ -3232,11 +3225,10 @@
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="1.74" right="0.26" top="0.74803149606299" bottom="0.74803149606299" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="5" orientation="landscape" scale="90" fitToHeight="1" fitToWidth="1"/>
+  <pageMargins left="0.98425196850394" right="0.39370078740157" top="0.31496062992126" bottom="0.23622047244094" header="0" footer="0"/>
+  <pageSetup paperSize="5" orientation="landscape" scale="95" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/hasil/2023_01_lipa_6.xlsx
+++ b/hasil/2023_01_lipa_6.xlsx
@@ -89,7 +89,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 17 Juli 2023</t>
+    <t>Ternate , 02 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
@@ -1125,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="15">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="15">
         <v>6</v>
       </c>
       <c r="G9" s="15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="15">
         <v>6</v>
@@ -1143,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9" s="15">
         <v>4</v>
@@ -1176,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="15">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="15">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" s="15">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L10" s="15">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="15">
         <v>4</v>
       </c>
       <c r="G11" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" s="15">
         <v>4</v>
@@ -1245,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="15">
         <v>1</v>
@@ -1277,13 +1277,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="15">
         <v>3</v>
       </c>
       <c r="G12" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="15">
         <v>3</v>
@@ -1295,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L12" s="15">
         <v>0</v>
@@ -1377,13 +1377,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
       </c>
       <c r="G14" s="15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="15">
         <v>1</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L14" s="15">
         <v>1</v>

--- a/hasil/2023_01_lipa_6.xlsx
+++ b/hasil/2023_01_lipa_6.xlsx
@@ -89,7 +89,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 02 Agustus 2023</t>
+    <t>Ternate , 04 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
@@ -1125,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="15">
         <v>6</v>
       </c>
       <c r="G9" s="15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="15">
         <v>6</v>
@@ -1143,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L9" s="15">
         <v>4</v>
@@ -1176,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="15">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" s="15">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L10" s="15">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="15">
         <v>4</v>
       </c>
       <c r="G11" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" s="15">
         <v>4</v>
@@ -1245,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" s="15">
         <v>1</v>
@@ -1277,13 +1277,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="15">
         <v>3</v>
       </c>
       <c r="G12" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="15">
         <v>3</v>
@@ -1295,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" s="15">
         <v>0</v>
@@ -1377,13 +1377,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
       </c>
       <c r="G14" s="15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="15">
         <v>1</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L14" s="15">
         <v>1</v>

--- a/hasil/2023_01_lipa_6.xlsx
+++ b/hasil/2023_01_lipa_6.xlsx
@@ -89,7 +89,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 04 September 2023</t>
+    <t>Ternate , 05 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
